--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed5/result_data_RandomForest.xlsx
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.86069999999998</v>
+        <v>17.0306</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.25400000000001</v>
+        <v>18.36510000000001</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.46369999999999</v>
+        <v>16.4543</v>
       </c>
     </row>
     <row r="16">
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.75359999999999</v>
+        <v>16.76849999999998</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.62089999999999</v>
+        <v>16.6292</v>
       </c>
     </row>
     <row r="29">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.5322</v>
+        <v>16.4873</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.62459999999998</v>
+        <v>16.74829999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>17.43860000000002</v>
+        <v>17.29860000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.3211</v>
+        <v>16.50429999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.10139999999999</v>
+        <v>17.16859999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.6259</v>
+        <v>16.6966</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.53739999999999</v>
+        <v>16.5556</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.6486</v>
+        <v>16.65360000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.19300000000003</v>
+        <v>17.15560000000003</v>
       </c>
     </row>
     <row r="68">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.16820000000003</v>
+        <v>17.19190000000003</v>
       </c>
     </row>
     <row r="70">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.5377</v>
+        <v>16.46129999999999</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.88000000000002</v>
+        <v>16.78840000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.65249999999999</v>
+        <v>16.77009999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.60710000000002</v>
+        <v>16.60750000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>18.73590000000002</v>
+        <v>18.72800000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>17.29110000000001</v>
+        <v>17.27290000000001</v>
       </c>
     </row>
     <row r="94">
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.3924</v>
+        <v>16.3891</v>
       </c>
     </row>
     <row r="100">
